--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_254.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_254.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,324 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:00:09.480000', '0:00:33.680000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:41.780000', '0:00:56.280000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1963636363636364</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:10.200000', '0:00:17.380000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.425</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07916666666666666</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G'], ['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(31.24882, 38.911405), (60.180884, 68.841927)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619), (153.617981, 161.988775)]</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A', 'E', 'E/5', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[['F/5', 'C', 'C/7', 'C/b7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(128.76, 134.6)]</t>
+          <t>[('0:00:59.907505', '0:01:05.886643')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:36.219000', '0:01:42.317000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:09.900000', '0:00:26.980000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -798,313 +814,312 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -1113,92 +1128,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
